--- a/.data/Tenant_Utilization_Data.xlsx
+++ b/.data/Tenant_Utilization_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shreyas.Risodkar\Documents\UiPath\UiPath_Utilization_Reporting_Bot\.data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079F38DF-78A2-4997-9309-C531568FB914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9B4748-2F73-41ED-817D-72411258821D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="460" windowWidth="19190" windowHeight="10340" xr2:uid="{BF6FEF08-9E38-44A3-8F71-26D01BF58101}"/>
+    <workbookView minimized="1" xWindow="10" yWindow="380" windowWidth="19190" windowHeight="10340" xr2:uid="{BF6FEF08-9E38-44A3-8F71-26D01BF58101}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,9 +498,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7205FB3B-965E-477D-B6D0-60A8C79161EE}">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="119.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
